--- a/1. Analyse/Wirtschaftlichkeitsanalyse.xlsx
+++ b/1. Analyse/Wirtschaftlichkeitsanalyse.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
   <si>
     <t>Kosten Technikerstunde</t>
   </si>
@@ -103,9 +103,6 @@
     <t>gewichtet</t>
   </si>
   <si>
-    <t>1. Erfüllung der Anforderungen</t>
-  </si>
-  <si>
     <t>E-Mail Benachrichtigung</t>
   </si>
   <si>
@@ -122,9 +119,6 @@
   </si>
   <si>
     <t>Bewerbung hochladen</t>
-  </si>
-  <si>
-    <t>2. Termineinhaltung</t>
   </si>
 </sst>
 </file>
@@ -266,7 +260,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -331,12 +325,8 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="4" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="4" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -416,24 +406,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A36" activeCellId="0" sqref="A36"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A28" activeCellId="0" sqref="A28:A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="39.4183673469388"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.7551020408163"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.3418367346939"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="25.2448979591837"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="42.25"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.3010204081633"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="35.9081632653061"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="38.8775510204082"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.3469387755102"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.8010204081633"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.9744897959184"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="41.7142857142857"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.8928571428571"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="35.3673469387755"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -705,16 +695,14 @@
       <c r="A28" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="7" t="n">
-        <v>25</v>
-      </c>
+      <c r="B28" s="7"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>
     <row r="29" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="15" t="s">
         <v>28</v>
       </c>
       <c r="B29" s="7"/>
@@ -723,7 +711,7 @@
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="16" t="s">
         <v>29</v>
       </c>
@@ -733,8 +721,8 @@
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="17" t="s">
+    <row r="31" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="15" t="s">
         <v>30</v>
       </c>
       <c r="B31" s="7"/>
@@ -743,8 +731,8 @@
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="16" t="s">
+    <row r="32" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="15" t="s">
         <v>31</v>
       </c>
       <c r="B32" s="7"/>
@@ -754,7 +742,7 @@
       <c r="F32" s="3"/>
     </row>
     <row r="33" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="16" t="s">
+      <c r="A33" s="15" t="s">
         <v>32</v>
       </c>
       <c r="B33" s="7"/>
@@ -762,26 +750,6 @@
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
-    </row>
-    <row r="34" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34" s="7"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-    </row>
-    <row r="35" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" s="7"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/1. Analyse/Wirtschaftlichkeitsanalyse.xlsx
+++ b/1. Analyse/Wirtschaftlichkeitsanalyse.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="37">
   <si>
     <t>Kosten Technikerstunde</t>
   </si>
@@ -103,22 +103,34 @@
     <t>gewichtet</t>
   </si>
   <si>
-    <t>E-Mail Benachrichtigung</t>
+    <t>Eigene Gestaltungsmöglichkeit</t>
+  </si>
+  <si>
+    <t>Implemenierung eines Bewerbungsformulars</t>
+  </si>
+  <si>
+    <t>Implementierung der Stellenangeboten</t>
+  </si>
+  <si>
+    <t>Zwischenspeichern der Stellenangebote in einer Datenbank</t>
+  </si>
+  <si>
+    <t>Erstellung einer XML Datei mit Bewerberdaten &amp; Bereitstellung für umantis Import</t>
   </si>
   <si>
     <t>PDF Generierung</t>
   </si>
   <si>
-    <t>Template Integrationsmöglichkeit</t>
-  </si>
-  <si>
-    <t>Automatisiert Stellenausschreibungen auf Website integrieren</t>
-  </si>
-  <si>
-    <t>Validierung</t>
-  </si>
-  <si>
-    <t>Bewerbung hochladen</t>
+    <t>Versand einer Informationsmail</t>
+  </si>
+  <si>
+    <t>umantis RSS Feed zeitgesteuert laden</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -131,7 +143,7 @@
     <numFmt numFmtId="166" formatCode="#,##0"/>
     <numFmt numFmtId="167" formatCode="0.00"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -167,8 +179,25 @@
       <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
       <sz val="12"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF66FFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <color rgb="FFFF9999"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <color rgb="FF33FF99"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -181,7 +210,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -203,7 +232,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6FFFE"/>
-        <bgColor rgb="FFCCFFFF"/>
+        <bgColor rgb="FFC6FFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -216,6 +245,42 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF999999"/>
         <bgColor rgb="FF808080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6FFFF"/>
+        <bgColor rgb="FFC6FFFE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE0E0"/>
+        <bgColor rgb="FFFFC6C6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDFFDD"/>
+        <bgColor rgb="FFC8FFC8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66FFFF"/>
+        <bgColor rgb="FF33FF99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC6C6"/>
+        <bgColor rgb="FFFFE0E0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC8FFC8"/>
+        <bgColor rgb="FFDDFFDD"/>
       </patternFill>
     </fill>
   </fills>
@@ -260,7 +325,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="28">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -313,6 +378,14 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -321,12 +394,48 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -341,7 +450,7 @@
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFFE0E0"/>
       <rgbColor rgb="FFFF3333"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
@@ -358,8 +467,8 @@
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFC6FFFE"/>
+      <rgbColor rgb="FFDDFFDD"/>
+      <rgbColor rgb="FFC6FFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
@@ -373,15 +482,15 @@
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFC6FFFE"/>
+      <rgbColor rgb="FFC8FFC8"/>
       <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FF66FFFF"/>
+      <rgbColor rgb="FFFF9999"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FFFFC6C6"/>
       <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF33FF99"/>
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
@@ -406,24 +515,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A28" activeCellId="0" sqref="A28:A33"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C32" activeCellId="0" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="38.8775510204082"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.3469387755102"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.8010204081633"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.9744897959184"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="41.7142857142857"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.8928571428571"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="35.3673469387755"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="38.3367346938776"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.9438775510204"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.3979591836735"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.7040816326531"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="41.1734693877551"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.4897959183673"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="34.9642857142857"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -662,94 +771,233 @@
         <v>21</v>
       </c>
       <c r="B26" s="12"/>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12" t="s">
+      <c r="D26" s="13"/>
+      <c r="E26" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F26" s="12"/>
-    </row>
-    <row r="27" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="13" t="s">
+      <c r="F26" s="14"/>
+    </row>
+    <row r="27" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E27" s="13" t="s">
+      <c r="E27" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F27" s="13" t="s">
+      <c r="F27" s="18" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="15" t="s">
+    <row r="28" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-    </row>
-    <row r="29" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="15" t="s">
+      <c r="B28" s="20" t="n">
+        <v>30</v>
+      </c>
+      <c r="C28" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" s="21" t="n">
+        <f aca="false">C28*B28</f>
+        <v>30</v>
+      </c>
+      <c r="E28" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="F28" s="22" t="n">
+        <f aca="false">E28*B28</f>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
+      <c r="B29" s="20" t="n">
+        <v>20</v>
+      </c>
+      <c r="C29" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="D29" s="21" t="n">
+        <f aca="false">C29*B29</f>
+        <v>120</v>
+      </c>
+      <c r="E29" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="F29" s="22" t="n">
+        <f aca="false">E29*B29</f>
+        <v>120</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="16" t="s">
+      <c r="A30" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-    </row>
-    <row r="31" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="15" t="s">
+      <c r="B30" s="20" t="n">
+        <v>15</v>
+      </c>
+      <c r="C30" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="D30" s="21" t="n">
+        <f aca="false">C30*B30</f>
+        <v>90</v>
+      </c>
+      <c r="E30" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="F30" s="22" t="n">
+        <f aca="false">E30*B30</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-    </row>
-    <row r="32" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="15" t="s">
+      <c r="B31" s="20" t="n">
+        <v>10</v>
+      </c>
+      <c r="C31" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" s="21" t="n">
+        <f aca="false">C31*B31</f>
+        <v>10</v>
+      </c>
+      <c r="E31" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="F31" s="22" t="n">
+        <f aca="false">E31*B31</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="44.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="7"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-    </row>
-    <row r="33" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="15" t="s">
+      <c r="B32" s="20" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="C32" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" s="21" t="n">
+        <f aca="false">C32*B32</f>
+        <v>7.5</v>
+      </c>
+      <c r="E32" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="F32" s="22" t="n">
+        <f aca="false">E32*B32</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
+      <c r="B33" s="20" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="C33" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" s="21" t="n">
+        <f aca="false">C33*B33</f>
+        <v>7.5</v>
+      </c>
+      <c r="E33" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="F33" s="22" t="n">
+        <f aca="false">E33*B33</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="C34" s="21" t="n">
+        <v>3</v>
+      </c>
+      <c r="D34" s="21" t="n">
+        <f aca="false">C34*B34</f>
+        <v>15</v>
+      </c>
+      <c r="E34" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="F34" s="22" t="n">
+        <f aca="false">E34*B34</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="C35" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="D35" s="21" t="n">
+        <f aca="false">C35*B35</f>
+        <v>20</v>
+      </c>
+      <c r="E35" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="F35" s="22" t="n">
+        <f aca="false">E35*B35</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="25" t="n">
+        <f aca="false">SUM(B28:B35)</f>
+        <v>100</v>
+      </c>
+      <c r="C36" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D36" s="26" t="n">
+        <f aca="false">SUM(D28:D35)</f>
+        <v>300</v>
+      </c>
+      <c r="E36" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="F36" s="27" t="n">
+        <f aca="false">SUM(F28:F35)</f>
+        <v>600</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
